--- a/StructureDefinition-AdjudicationType.xlsx
+++ b/StructureDefinition-AdjudicationType.xlsx
@@ -245,7 +245,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationSlideCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationSlideCodes</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.07421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.65625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
